--- a/RTD-temp-calc.xlsx
+++ b/RTD-temp-calc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse\Documents\git\SmokeMachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9ED299E-618E-4B09-A316-B2DE15BE12EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61795741-9A05-410D-A89F-C3DE4794EC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>T</t>
   </si>
@@ -96,20 +96,74 @@
     <t>RTD-thermistor</t>
   </si>
   <si>
-    <t>490-2880-ND</t>
+    <t>223-NB-PTCO-190-ND</t>
   </si>
   <si>
-    <t>2k Trimpot</t>
+    <t>490-2874-ND</t>
   </si>
   <si>
-    <t>223-NB-PTCO-190-ND</t>
+    <t>1k Trimpot</t>
+  </si>
+  <si>
+    <t>Transistor Power</t>
+  </si>
+  <si>
+    <t>Rds (mOhm)</t>
+  </si>
+  <si>
+    <t>Ids (A)</t>
+  </si>
+  <si>
+    <t>Vds (V)</t>
+  </si>
+  <si>
+    <t>Power (W)</t>
+  </si>
+  <si>
+    <t>Rth J-&gt;A (C/W)</t>
+  </si>
+  <si>
+    <t>Tdelta (C)</t>
+  </si>
+  <si>
+    <t>Tjunction (C)</t>
+  </si>
+  <si>
+    <t>Tambient (C)</t>
+  </si>
+  <si>
+    <t>Power mosfet</t>
+  </si>
+  <si>
+    <t>4822-G30N02T-ND</t>
+  </si>
+  <si>
+    <t>Dual AND gate</t>
+  </si>
+  <si>
+    <t>1727-5969-1-ND</t>
+  </si>
+  <si>
+    <t>Comparator</t>
+  </si>
+  <si>
+    <t>497-1593-1-ND</t>
+  </si>
+  <si>
+    <t>Inverter</t>
+  </si>
+  <si>
+    <t>74AHCT1G14SE-7DICT-ND</t>
+  </si>
+  <si>
+    <t>heat sink</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -121,8 +175,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,8 +196,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -144,19 +217,118 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -214,6 +386,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -658,7 +860,7 @@
             <c:numRef>
               <c:f>calcs!$F$2:$F$40</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
@@ -819,6 +1021,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature (C)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -881,6 +1138,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Resistance (R)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1534,16 +1846,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>604837</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1923,43 +2235,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7005A7F7-2942-4BA4-B4A3-2BEFBE6381E4}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F1" s="19"/>
+      <c r="G1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="10">
+        <v>13</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="11">
+        <v>10</v>
+      </c>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="14">
+        <f xml:space="preserve"> H3*H2/1000</f>
+        <v>0.13</v>
+      </c>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="12">
+        <f>H4*H3</f>
+        <v>1.3</v>
+      </c>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="10">
+        <v>62.5</v>
+      </c>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="16">
+        <f>H7*H5</f>
+        <v>81.25</v>
+      </c>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F9" s="19"/>
+      <c r="G9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="11">
+        <v>25</v>
+      </c>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="19"/>
+      <c r="G10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="12">
+        <f>H9+H8</f>
+        <v>106.25</v>
+      </c>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1967,15 +2408,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1F3510-5173-4434-8C10-E790D8EE696A}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1991,11 +2432,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2009,12 +2450,12 @@
         <f>$B$3*(1+$B$1*D2+$B$2*POWER(D2,2))</f>
         <v>1000</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <f>$B$3*(1+$B$1*D2)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2029,12 +2470,12 @@
         <f t="shared" ref="E3:E40" si="0">$B$3*(1+$B$1*D3+$B$2*POWER(D3,2))</f>
         <v>1039.0252499999999</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <f t="shared" ref="F3:F40" si="1">$B$3*(1+$B$1*D3)</f>
         <v>1039.0830000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D4">
         <f t="shared" ref="D4:D40" si="2">D3+10</f>
         <v>20</v>
@@ -2043,12 +2484,12 @@
         <f t="shared" si="0"/>
         <v>1077.9349999999999</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f t="shared" si="1"/>
         <v>1078.1659999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D5">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -2057,12 +2498,12 @@
         <f t="shared" si="0"/>
         <v>1116.7292499999999</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <f t="shared" si="1"/>
         <v>1117.249</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2077,12 +2518,12 @@
         <f t="shared" si="0"/>
         <v>1155.4079999999999</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <f t="shared" si="1"/>
         <v>1156.3319999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2097,12 +2538,12 @@
         <f t="shared" si="0"/>
         <v>1193.9712500000001</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <f t="shared" si="1"/>
         <v>1195.4150000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2117,12 +2558,12 @@
         <f t="shared" si="0"/>
         <v>1232.4189999999999</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <f t="shared" si="1"/>
         <v>1234.4979999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D9">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -2131,12 +2572,12 @@
         <f t="shared" si="0"/>
         <v>1270.75125</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <f t="shared" si="1"/>
         <v>1273.5810000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2148,12 +2589,12 @@
         <f t="shared" si="0"/>
         <v>1308.9680000000001</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <f t="shared" si="1"/>
         <v>1312.664</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2169,12 +2610,12 @@
         <f t="shared" si="0"/>
         <v>1347.06925</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <f t="shared" si="1"/>
         <v>1351.7470000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -2190,12 +2631,12 @@
         <f t="shared" si="0"/>
         <v>1385.0549999999998</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f t="shared" si="1"/>
         <v>1390.83</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -2211,12 +2652,12 @@
         <f t="shared" si="0"/>
         <v>1422.92525</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <f t="shared" si="1"/>
         <v>1429.913</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D14">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -2225,12 +2666,12 @@
         <f t="shared" si="0"/>
         <v>1460.68</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <f t="shared" si="1"/>
         <v>1468.9959999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D15">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -2239,12 +2680,12 @@
         <f t="shared" si="0"/>
         <v>1498.31925</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <f t="shared" si="1"/>
         <v>1508.079</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -2256,7 +2697,7 @@
         <f t="shared" si="0"/>
         <v>1535.8430000000001</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <f t="shared" si="1"/>
         <v>1547.1620000000003</v>
       </c>
@@ -2277,7 +2718,7 @@
         <f t="shared" si="0"/>
         <v>1573.25125</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <f t="shared" si="1"/>
         <v>1586.2449999999999</v>
       </c>
@@ -2298,7 +2739,7 @@
         <f t="shared" si="0"/>
         <v>1610.5440000000001</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <f t="shared" si="1"/>
         <v>1625.3280000000002</v>
       </c>
@@ -2319,7 +2760,7 @@
         <f t="shared" si="0"/>
         <v>1647.7212499999998</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <f t="shared" si="1"/>
         <v>1664.4109999999998</v>
       </c>
@@ -2333,7 +2774,7 @@
         <f t="shared" si="0"/>
         <v>1684.7830000000001</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <f t="shared" si="1"/>
         <v>1703.4940000000001</v>
       </c>
@@ -2347,7 +2788,7 @@
         <f t="shared" si="0"/>
         <v>1721.7292500000001</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <f t="shared" si="1"/>
         <v>1742.577</v>
       </c>
@@ -2361,7 +2802,7 @@
         <f t="shared" si="0"/>
         <v>1758.5600000000002</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <f t="shared" si="1"/>
         <v>1781.66</v>
       </c>
@@ -2375,7 +2816,7 @@
         <f t="shared" si="0"/>
         <v>1795.2752499999999</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <f t="shared" si="1"/>
         <v>1820.7429999999999</v>
       </c>
@@ -2389,7 +2830,7 @@
         <f t="shared" si="0"/>
         <v>1831.875</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <f t="shared" si="1"/>
         <v>1859.826</v>
       </c>
@@ -2403,7 +2844,7 @@
         <f t="shared" si="0"/>
         <v>1868.35925</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <f t="shared" si="1"/>
         <v>1898.9089999999999</v>
       </c>
@@ -2417,7 +2858,7 @@
         <f t="shared" si="0"/>
         <v>1904.7280000000001</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <f t="shared" si="1"/>
         <v>1937.992</v>
       </c>
@@ -2431,7 +2872,7 @@
         <f t="shared" si="0"/>
         <v>1940.98125</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <f t="shared" si="1"/>
         <v>1977.075</v>
       </c>
@@ -2445,7 +2886,7 @@
         <f t="shared" si="0"/>
         <v>1977.1189999999999</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <f t="shared" si="1"/>
         <v>2016.1579999999999</v>
       </c>
@@ -2459,7 +2900,7 @@
         <f t="shared" si="0"/>
         <v>2013.1412499999999</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <f t="shared" si="1"/>
         <v>2055.241</v>
       </c>
@@ -2473,7 +2914,7 @@
         <f t="shared" si="0"/>
         <v>2049.0480000000002</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <f t="shared" si="1"/>
         <v>2094.3240000000005</v>
       </c>
@@ -2487,7 +2928,7 @@
         <f t="shared" si="0"/>
         <v>2084.83925</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <f t="shared" si="1"/>
         <v>2133.4070000000002</v>
       </c>
@@ -2501,7 +2942,7 @@
         <f t="shared" si="0"/>
         <v>2120.5149999999999</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <f t="shared" si="1"/>
         <v>2172.4899999999998</v>
       </c>
@@ -2515,7 +2956,7 @@
         <f t="shared" si="0"/>
         <v>2156.0752500000003</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <f t="shared" si="1"/>
         <v>2211.5729999999999</v>
       </c>
@@ -2529,7 +2970,7 @@
         <f t="shared" si="0"/>
         <v>2191.52</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <f t="shared" si="1"/>
         <v>2250.6560000000004</v>
       </c>
@@ -2543,7 +2984,7 @@
         <f t="shared" si="0"/>
         <v>2226.8492499999998</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <f t="shared" si="1"/>
         <v>2289.739</v>
       </c>
@@ -2557,7 +2998,7 @@
         <f t="shared" si="0"/>
         <v>2262.0630000000001</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <f t="shared" si="1"/>
         <v>2328.8219999999997</v>
       </c>
@@ -2571,7 +3012,7 @@
         <f t="shared" si="0"/>
         <v>2297.1612499999997</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <f t="shared" si="1"/>
         <v>2367.9049999999997</v>
       </c>
@@ -2585,7 +3026,7 @@
         <f t="shared" si="0"/>
         <v>2332.1439999999998</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <f t="shared" si="1"/>
         <v>2406.9880000000003</v>
       </c>
@@ -2599,7 +3040,7 @@
         <f t="shared" si="0"/>
         <v>2367.01125</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <f t="shared" si="1"/>
         <v>2446.0709999999999</v>
       </c>
@@ -2613,14 +3054,17 @@
         <f t="shared" si="0"/>
         <v>2401.7629999999999</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <f t="shared" si="1"/>
         <v>2485.154</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H1" r:id="rId1" xr:uid="{D3B53ADA-412D-483E-9A88-8F14BBD46E54}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/RTD-temp-calc.xlsx
+++ b/RTD-temp-calc.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse\Documents\git\SmokeMachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61795741-9A05-410D-A89F-C3DE4794EC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A9E7D9-25D7-4ED1-8BBC-6C245D441364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parts" sheetId="5" r:id="rId1"/>
     <sheet name="calcs" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
   <si>
     <t>T</t>
   </si>
@@ -158,6 +159,90 @@
   <si>
     <t>heat sink</t>
   </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>RV2</t>
+  </si>
+  <si>
+    <t>V2_min</t>
+  </si>
+  <si>
+    <t>V2_max</t>
+  </si>
+  <si>
+    <t>Vsupply</t>
+  </si>
+  <si>
+    <t>TH2_min</t>
+  </si>
+  <si>
+    <t>TH2_max</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>V3_min</t>
+  </si>
+  <si>
+    <t>V3_max</t>
+  </si>
+  <si>
+    <t>Vrange</t>
+  </si>
+  <si>
+    <t>TH2 Top</t>
+  </si>
+  <si>
+    <t>TH2 Bot</t>
+  </si>
+  <si>
+    <t>Vset</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>RV1_max</t>
+  </si>
+  <si>
+    <t>Rs</t>
+  </si>
+  <si>
+    <t>TH1_min</t>
+  </si>
+  <si>
+    <t>TH1_max</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>at MIN-temp</t>
+  </si>
+  <si>
+    <t>Rp</t>
+  </si>
+  <si>
+    <t>at MAX-temp</t>
+  </si>
+  <si>
+    <t>0-&gt;300 deg, pot min</t>
+  </si>
+  <si>
+    <t>Rth</t>
+  </si>
+  <si>
+    <t>Rpot</t>
+  </si>
+  <si>
+    <t>v3</t>
+  </si>
 </sst>
 </file>
 
@@ -209,7 +294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -296,12 +381,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -319,13 +424,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1883,6 +2008,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5898</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>113660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2FAC69E-59A6-F6A9-0441-4F7B0E13BE71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16106775" y="501198"/>
+          <a:ext cx="2905125" cy="2565212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>551647</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>151514</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C91A9B78-7279-1FD8-B7D9-659CD61065A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16268699" y="3319461"/>
+          <a:ext cx="3209123" cy="3537653"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2238,7 +2456,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2255,12 +2473,12 @@
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -2269,14 +2487,14 @@
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="10">
         <v>13</v>
       </c>
-      <c r="I2" s="19"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2285,14 +2503,14 @@
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="11">
         <v>10</v>
       </c>
-      <c r="I3" s="19"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2301,7 +2519,7 @@
       <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="13" t="s">
         <v>24</v>
       </c>
@@ -2309,7 +2527,7 @@
         <f xml:space="preserve"> H3*H2/1000</f>
         <v>0.13</v>
       </c>
-      <c r="I4" s="19"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2318,7 +2536,7 @@
       <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="8" t="s">
         <v>25</v>
       </c>
@@ -2326,7 +2544,7 @@
         <f>H4*H3</f>
         <v>1.3</v>
       </c>
-      <c r="I5" s="19"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2335,10 +2553,10 @@
       <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2347,20 +2565,20 @@
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="10">
         <v>62.5</v>
       </c>
-      <c r="I7" s="19"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="15" t="s">
         <v>27</v>
       </c>
@@ -2368,20 +2586,20 @@
         <f>H7*H5</f>
         <v>81.25</v>
       </c>
-      <c r="I8" s="19"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F9" s="19"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="11">
         <v>25</v>
       </c>
-      <c r="I9" s="19"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F10" s="19"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="8" t="s">
         <v>28</v>
       </c>
@@ -2389,13 +2607,13 @@
         <f>H9+H8</f>
         <v>106.25</v>
       </c>
-      <c r="I10" s="19"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2411,7 +2629,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3064,6 +3282,2309 @@
     <hyperlink ref="H1" r:id="rId1" xr:uid="{D3B53ADA-412D-483E-9A88-8F14BBD46E54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69510AA1-B23B-45EB-8002-FC72C6B52B75}">
+  <dimension ref="A1:Y37"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="31">
+        <v>3.9083E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="32">
+        <v>-5.7749999999999998E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="34">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>63</v>
+      </c>
+      <c r="V4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T6" t="s">
+        <v>66</v>
+      </c>
+      <c r="V6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>64</v>
+      </c>
+      <c r="X6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <f>$E$3*(1+$E$1*G7)</f>
+        <v>1000</v>
+      </c>
+      <c r="I7">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J7" s="24">
+        <f>I7/(H7+I7)*$B$2</f>
+        <v>4.545454545454545</v>
+      </c>
+      <c r="L7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <f>$E$3*(1+$E$1*L7)</f>
+        <v>1000</v>
+      </c>
+      <c r="N7">
+        <v>22000</v>
+      </c>
+      <c r="O7" s="24">
+        <f>N7/(M7+N7)*$B$2</f>
+        <v>4.7826086956521738</v>
+      </c>
+      <c r="Q7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <f>$E$3*(1+$E$1*Q7)</f>
+        <v>1000</v>
+      </c>
+      <c r="S7">
+        <v>160</v>
+      </c>
+      <c r="T7" s="24">
+        <f>R7/(R7+S7)*$B$2</f>
+        <v>4.3103448275862064</v>
+      </c>
+      <c r="V7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <f>$E$3*(1+$E$1*V7)</f>
+        <v>1000</v>
+      </c>
+      <c r="X7">
+        <v>220</v>
+      </c>
+      <c r="Y7" s="24">
+        <f>W7/(W7+X7)*$B$2</f>
+        <v>4.0983606557377055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f>G7+10</f>
+        <v>10</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" ref="H8:H37" si="0">$E$3*(1+$E$1*G8)</f>
+        <v>1039.0830000000001</v>
+      </c>
+      <c r="I8">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" ref="J8:J37" si="1">I8/(H8+I8)*$B$2</f>
+        <v>4.5293617232518315</v>
+      </c>
+      <c r="L8">
+        <f>L7+10</f>
+        <v>10</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" ref="M8:M37" si="2">$E$3*(1+$E$1*L8)</f>
+        <v>1039.0830000000001</v>
+      </c>
+      <c r="N8">
+        <v>22000</v>
+      </c>
+      <c r="O8" s="24">
+        <f t="shared" ref="O8:O37" si="3">N8/(M8+N8)*$B$2</f>
+        <v>4.7744955821375354</v>
+      </c>
+      <c r="Q8">
+        <f>Q7+10</f>
+        <v>10</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" ref="R8:R37" si="4">$E$3*(1+$E$1*Q8)</f>
+        <v>1039.0830000000001</v>
+      </c>
+      <c r="S8">
+        <v>160</v>
+      </c>
+      <c r="T8" s="24">
+        <f t="shared" ref="T8:T37" si="5">R8/(R8+S8)*$B$2</f>
+        <v>4.3328234992907078</v>
+      </c>
+      <c r="V8">
+        <f>V7+10</f>
+        <v>10</v>
+      </c>
+      <c r="W8" s="2">
+        <f t="shared" ref="W8:W37" si="6">$E$3*(1+$E$1*V8)</f>
+        <v>1039.0830000000001</v>
+      </c>
+      <c r="X8">
+        <v>220</v>
+      </c>
+      <c r="Y8" s="24">
+        <f t="shared" ref="Y8:Y37" si="7">W8/(W8+X8)*$B$2</f>
+        <v>4.1263483026933097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9">
+        <v>1000</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G37" si="8">G8+10</f>
+        <v>20</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>1078.1659999999999</v>
+      </c>
+      <c r="I9">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="1"/>
+        <v>4.5133824497665049</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:L37" si="9">L8+10</f>
+        <v>20</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="2"/>
+        <v>1078.1659999999999</v>
+      </c>
+      <c r="N9">
+        <v>22000</v>
+      </c>
+      <c r="O9" s="24">
+        <f t="shared" si="3"/>
+        <v>4.766409947826876</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" ref="Q9:Q37" si="10">Q8+10</f>
+        <v>20</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="4"/>
+        <v>1078.1659999999999</v>
+      </c>
+      <c r="S9">
+        <v>160</v>
+      </c>
+      <c r="T9" s="24">
+        <f t="shared" si="5"/>
+        <v>4.3538830819130876</v>
+      </c>
+      <c r="V9">
+        <f t="shared" ref="V9:V37" si="11">V8+10</f>
+        <v>20</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="6"/>
+        <v>1078.1659999999999</v>
+      </c>
+      <c r="X9">
+        <v>220</v>
+      </c>
+      <c r="Y9" s="24">
+        <f t="shared" si="7"/>
+        <v>4.1526507395818406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="19">
+        <v>10000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10">
+        <v>10000</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>1117.249</v>
+      </c>
+      <c r="I10">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" si="1"/>
+        <v>4.497515527447483</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="2"/>
+        <v>1117.249</v>
+      </c>
+      <c r="N10">
+        <v>22000</v>
+      </c>
+      <c r="O10" s="24">
+        <f t="shared" si="3"/>
+        <v>4.7583516533476802</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="4"/>
+        <v>1117.249</v>
+      </c>
+      <c r="S10">
+        <v>160</v>
+      </c>
+      <c r="T10" s="24">
+        <f t="shared" si="5"/>
+        <v>4.3736538450998985</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="W10" s="2">
+        <f t="shared" si="6"/>
+        <v>1117.249</v>
+      </c>
+      <c r="X10">
+        <v>220</v>
+      </c>
+      <c r="Y10" s="24">
+        <f t="shared" si="7"/>
+        <v>4.1774157243714525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="20"/>
+      <c r="G11">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>1156.3319999999999</v>
+      </c>
+      <c r="I11">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J11" s="24">
+        <f t="shared" si="1"/>
+        <v>4.4817597755247869</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="2"/>
+        <v>1156.3319999999999</v>
+      </c>
+      <c r="N11">
+        <v>22000</v>
+      </c>
+      <c r="O11" s="24">
+        <f t="shared" si="3"/>
+        <v>4.7503205602683538</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="4"/>
+        <v>1156.3319999999999</v>
+      </c>
+      <c r="S11">
+        <v>160</v>
+      </c>
+      <c r="T11" s="24">
+        <f t="shared" si="5"/>
+        <v>4.3922505872378697</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="W11" s="2">
+        <f t="shared" si="6"/>
+        <v>1156.3319999999999</v>
+      </c>
+      <c r="X11">
+        <v>220</v>
+      </c>
+      <c r="Y11" s="24">
+        <f t="shared" si="7"/>
+        <v>4.2007742317987233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="23">
+        <f>B9/(B9+B10)*B2</f>
+        <v>0.45454545454545459</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>1195.4150000000002</v>
+      </c>
+      <c r="I12">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J12" s="24">
+        <f t="shared" si="1"/>
+        <v>4.4661140297166293</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="2"/>
+        <v>1195.4150000000002</v>
+      </c>
+      <c r="N12">
+        <v>22000</v>
+      </c>
+      <c r="O12" s="24">
+        <f t="shared" si="3"/>
+        <v>4.7423165310903039</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="4"/>
+        <v>1195.4150000000002</v>
+      </c>
+      <c r="S12">
+        <v>160</v>
+      </c>
+      <c r="T12" s="24">
+        <f t="shared" si="5"/>
+        <v>4.4097748660004497</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="W12" s="2">
+        <f t="shared" si="6"/>
+        <v>1195.4150000000002</v>
+      </c>
+      <c r="X12">
+        <v>220</v>
+      </c>
+      <c r="Y12" s="24">
+        <f t="shared" si="7"/>
+        <v>4.2228427704948732</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="22">
+        <f>B9/(B9+0)*B2</f>
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="24">
+        <f>E10/(E9+E10)*B2</f>
+        <v>4.545454545454545</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
+        <v>1234.4979999999998</v>
+      </c>
+      <c r="I13">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J13" s="24">
+        <f t="shared" si="1"/>
+        <v>4.4505771419426132</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="2"/>
+        <v>1234.4979999999998</v>
+      </c>
+      <c r="N13">
+        <v>22000</v>
+      </c>
+      <c r="O13" s="24">
+        <f t="shared" si="3"/>
+        <v>4.73433942924009</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="4"/>
+        <v>1234.4979999999998</v>
+      </c>
+      <c r="S13">
+        <v>160</v>
+      </c>
+      <c r="T13" s="24">
+        <f t="shared" si="5"/>
+        <v>4.42631685380689</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="W13" s="2">
+        <f t="shared" si="6"/>
+        <v>1234.4979999999998</v>
+      </c>
+      <c r="X13">
+        <v>220</v>
+      </c>
+      <c r="Y13" s="24">
+        <f t="shared" si="7"/>
+        <v>4.2437253265387778</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="29"/>
+      <c r="G14">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
+        <v>1273.5810000000001</v>
+      </c>
+      <c r="I14">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J14" s="24">
+        <f t="shared" si="1"/>
+        <v>4.4351479800428981</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="2"/>
+        <v>1273.5810000000001</v>
+      </c>
+      <c r="N14">
+        <v>22000</v>
+      </c>
+      <c r="O14" s="24">
+        <f t="shared" si="3"/>
+        <v>4.7263891190616523</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="10"/>
+        <v>70</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" si="4"/>
+        <v>1273.5810000000001</v>
+      </c>
+      <c r="S14">
+        <v>160</v>
+      </c>
+      <c r="T14" s="24">
+        <f t="shared" si="5"/>
+        <v>4.4419568897746275</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="W14" s="2">
+        <f t="shared" si="6"/>
+        <v>1273.5810000000001</v>
+      </c>
+      <c r="X14">
+        <v>220</v>
+      </c>
+      <c r="Y14" s="24">
+        <f t="shared" si="7"/>
+        <v>4.2635150018646462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="G15">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
+        <v>1312.664</v>
+      </c>
+      <c r="I15">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J15" s="24">
+        <f t="shared" si="1"/>
+        <v>4.419825427503195</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="2"/>
+        <v>1312.664</v>
+      </c>
+      <c r="N15">
+        <v>22000</v>
+      </c>
+      <c r="O15" s="24">
+        <f t="shared" si="3"/>
+        <v>4.7184654658086265</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="R15" s="2">
+        <f t="shared" si="4"/>
+        <v>1312.664</v>
+      </c>
+      <c r="S15">
+        <v>160</v>
+      </c>
+      <c r="T15" s="24">
+        <f t="shared" si="5"/>
+        <v>4.4567667845482744</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="W15" s="2">
+        <f t="shared" si="6"/>
+        <v>1312.664</v>
+      </c>
+      <c r="X15">
+        <v>220</v>
+      </c>
+      <c r="Y15" s="24">
+        <f t="shared" si="7"/>
+        <v>4.2822954019928696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="26">
+        <v>1000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16">
+        <v>10000</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
+        <v>1351.7470000000001</v>
+      </c>
+      <c r="I16">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J16" s="24">
+        <f t="shared" si="1"/>
+        <v>4.4046083831854252</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="2"/>
+        <v>1351.7470000000001</v>
+      </c>
+      <c r="N16">
+        <v>22000</v>
+      </c>
+      <c r="O16" s="24">
+        <f t="shared" si="3"/>
+        <v>4.7105683356367303</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="4"/>
+        <v>1351.7470000000001</v>
+      </c>
+      <c r="S16">
+        <v>160</v>
+      </c>
+      <c r="T16" s="24">
+        <f t="shared" si="5"/>
+        <v>4.47081092272715</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="W16" s="2">
+        <f t="shared" si="6"/>
+        <v>1351.7470000000001</v>
+      </c>
+      <c r="X16">
+        <v>220</v>
+      </c>
+      <c r="Y16" s="24">
+        <f t="shared" si="7"/>
+        <v>4.3001418167173213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="20">
+        <v>2200</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17">
+        <v>1000</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="0"/>
+        <v>1390.83</v>
+      </c>
+      <c r="I17">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J17" s="24">
+        <f t="shared" si="1"/>
+        <v>4.3894957610639436</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="2"/>
+        <v>1390.83</v>
+      </c>
+      <c r="N17">
+        <v>22000</v>
+      </c>
+      <c r="O17" s="24">
+        <f t="shared" si="3"/>
+        <v>4.7026975955962227</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" si="4"/>
+        <v>1390.83</v>
+      </c>
+      <c r="S17">
+        <v>160</v>
+      </c>
+      <c r="T17" s="24">
+        <f t="shared" si="5"/>
+        <v>4.4841471985968804</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="W17" s="2">
+        <f t="shared" si="6"/>
+        <v>1390.83</v>
+      </c>
+      <c r="X17">
+        <v>220</v>
+      </c>
+      <c r="Y17" s="24">
+        <f t="shared" si="7"/>
+        <v>4.3171222289130444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="20">
+        <v>1000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18">
+        <v>2000</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="8"/>
+        <v>110</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="0"/>
+        <v>1429.913</v>
+      </c>
+      <c r="I18">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J18" s="24">
+        <f t="shared" si="1"/>
+        <v>4.3744864899671585</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="9"/>
+        <v>110</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="2"/>
+        <v>1429.913</v>
+      </c>
+      <c r="N18">
+        <v>22000</v>
+      </c>
+      <c r="O18" s="24">
+        <f t="shared" si="3"/>
+        <v>4.6948531136244505</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="10"/>
+        <v>110</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" si="4"/>
+        <v>1429.913</v>
+      </c>
+      <c r="S18">
+        <v>160</v>
+      </c>
+      <c r="T18" s="24">
+        <f t="shared" si="5"/>
+        <v>4.4968278138489337</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="11"/>
+        <v>110</v>
+      </c>
+      <c r="W18" s="2">
+        <f t="shared" si="6"/>
+        <v>1429.913</v>
+      </c>
+      <c r="X18">
+        <v>220</v>
+      </c>
+      <c r="Y18" s="24">
+        <f t="shared" si="7"/>
+        <v>4.3332981799646406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19">
+        <v>3200</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="0"/>
+        <v>1468.9959999999999</v>
+      </c>
+      <c r="I19">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J19" s="24">
+        <f t="shared" si="1"/>
+        <v>4.3595795133244444</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="9"/>
+        <v>120</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="2"/>
+        <v>1468.9959999999999</v>
+      </c>
+      <c r="N19">
+        <v>22000</v>
+      </c>
+      <c r="O19" s="24">
+        <f t="shared" si="3"/>
+        <v>4.6870347585384566</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" si="4"/>
+        <v>1468.9959999999999</v>
+      </c>
+      <c r="S19">
+        <v>160</v>
+      </c>
+      <c r="T19" s="24">
+        <f t="shared" si="5"/>
+        <v>4.5088999604664473</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="W19" s="2">
+        <f t="shared" si="6"/>
+        <v>1468.9959999999999</v>
+      </c>
+      <c r="X19">
+        <v>220</v>
+      </c>
+      <c r="Y19" s="24">
+        <f t="shared" si="7"/>
+        <v>4.3487255150397042</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="27">
+        <f>B18/(B18+B17)*B2</f>
+        <v>1.5625</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="8"/>
+        <v>130</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="0"/>
+        <v>1508.079</v>
+      </c>
+      <c r="I20">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J20" s="24">
+        <f t="shared" si="1"/>
+        <v>4.3447737889182028</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="9"/>
+        <v>130</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="2"/>
+        <v>1508.079</v>
+      </c>
+      <c r="N20">
+        <v>22000</v>
+      </c>
+      <c r="O20" s="24">
+        <f t="shared" si="3"/>
+        <v>4.6792424000276664</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="10"/>
+        <v>130</v>
+      </c>
+      <c r="R20" s="2">
+        <f t="shared" si="4"/>
+        <v>1508.079</v>
+      </c>
+      <c r="S20">
+        <v>160</v>
+      </c>
+      <c r="T20" s="24">
+        <f t="shared" si="5"/>
+        <v>4.5204064076101913</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="11"/>
+        <v>130</v>
+      </c>
+      <c r="W20" s="2">
+        <f t="shared" si="6"/>
+        <v>1508.079</v>
+      </c>
+      <c r="X20">
+        <v>220</v>
+      </c>
+      <c r="Y20" s="24">
+        <f t="shared" si="7"/>
+        <v>4.3634550272296577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="27">
+        <f>B18/(B18+B16)*B2</f>
+        <v>2.5</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="8"/>
+        <v>140</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="0"/>
+        <v>1547.1620000000003</v>
+      </c>
+      <c r="I21">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J21" s="24">
+        <f t="shared" si="1"/>
+        <v>4.330068288640966</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="9"/>
+        <v>140</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="2"/>
+        <v>1547.1620000000003</v>
+      </c>
+      <c r="N21">
+        <v>22000</v>
+      </c>
+      <c r="O21" s="24">
+        <f t="shared" si="3"/>
+        <v>4.6714759086466557</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="10"/>
+        <v>140</v>
+      </c>
+      <c r="R21" s="2">
+        <f t="shared" si="4"/>
+        <v>1547.1620000000003</v>
+      </c>
+      <c r="S21">
+        <v>160</v>
+      </c>
+      <c r="T21" s="24">
+        <f t="shared" si="5"/>
+        <v>4.5313860078891164</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="11"/>
+        <v>140</v>
+      </c>
+      <c r="W21" s="2">
+        <f t="shared" si="6"/>
+        <v>1547.1620000000003</v>
+      </c>
+      <c r="X21">
+        <v>220</v>
+      </c>
+      <c r="Y21" s="24">
+        <f t="shared" si="7"/>
+        <v>4.3775330162146995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="28">
+        <f>B21-B20</f>
+        <v>0.9375</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="0"/>
+        <v>1586.2449999999999</v>
+      </c>
+      <c r="I22">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J22" s="24">
+        <f t="shared" si="1"/>
+        <v>4.3154619982574163</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="9"/>
+        <v>150</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="2"/>
+        <v>1586.2449999999999</v>
+      </c>
+      <c r="N22">
+        <v>22000</v>
+      </c>
+      <c r="O22" s="24">
+        <f t="shared" si="3"/>
+        <v>4.6637351558079718</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" si="4"/>
+        <v>1586.2449999999999</v>
+      </c>
+      <c r="S22">
+        <v>160</v>
+      </c>
+      <c r="T22" s="24">
+        <f t="shared" si="5"/>
+        <v>4.541874135645342</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+      <c r="W22" s="2">
+        <f t="shared" si="6"/>
+        <v>1586.2449999999999</v>
+      </c>
+      <c r="X22">
+        <v>220</v>
+      </c>
+      <c r="Y22" s="24">
+        <f t="shared" si="7"/>
+        <v>4.3910017743993759</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B23" s="24"/>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="0"/>
+        <v>1625.3280000000002</v>
+      </c>
+      <c r="I23">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J23" s="24">
+        <f t="shared" si="1"/>
+        <v>4.3009539171711975</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="2"/>
+        <v>1625.3280000000002</v>
+      </c>
+      <c r="N23">
+        <v>22000</v>
+      </c>
+      <c r="O23" s="24">
+        <f t="shared" si="3"/>
+        <v>4.6560200137750467</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="10"/>
+        <v>160</v>
+      </c>
+      <c r="R23" s="2">
+        <f t="shared" si="4"/>
+        <v>1625.3280000000002</v>
+      </c>
+      <c r="S23">
+        <v>160</v>
+      </c>
+      <c r="T23" s="24">
+        <f t="shared" si="5"/>
+        <v>4.5519030676715992</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="11"/>
+        <v>160</v>
+      </c>
+      <c r="W23" s="2">
+        <f t="shared" si="6"/>
+        <v>1625.3280000000002</v>
+      </c>
+      <c r="X23">
+        <v>220</v>
+      </c>
+      <c r="Y23" s="24">
+        <f t="shared" si="7"/>
+        <v>4.403900011271709</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="37"/>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="24">
+        <f>E13</f>
+        <v>4.545454545454545</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="8"/>
+        <v>170</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="0"/>
+        <v>1664.4109999999998</v>
+      </c>
+      <c r="I24">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J24" s="24">
+        <f t="shared" si="1"/>
+        <v>4.2865430581964228</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="9"/>
+        <v>170</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="2"/>
+        <v>1664.4109999999998</v>
+      </c>
+      <c r="N24">
+        <v>22000</v>
+      </c>
+      <c r="O24" s="24">
+        <f t="shared" si="3"/>
+        <v>4.6483303556551654</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="10"/>
+        <v>170</v>
+      </c>
+      <c r="R24" s="2">
+        <f t="shared" si="4"/>
+        <v>1664.4109999999998</v>
+      </c>
+      <c r="S24">
+        <v>160</v>
+      </c>
+      <c r="T24" s="24">
+        <f t="shared" si="5"/>
+        <v>4.5615023149937155</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="11"/>
+        <v>170</v>
+      </c>
+      <c r="W24" s="2">
+        <f t="shared" si="6"/>
+        <v>1664.4109999999998</v>
+      </c>
+      <c r="X24">
+        <v>220</v>
+      </c>
+      <c r="Y24" s="24">
+        <f t="shared" si="7"/>
+        <v>4.4162632249546405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="26">
+        <v>1000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25">
+        <f>(E24*$E$18)/($B$2-E24)</f>
+        <v>19999.999999999978</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="8"/>
+        <v>180</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="0"/>
+        <v>1703.4940000000001</v>
+      </c>
+      <c r="I25">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J25" s="24">
+        <f t="shared" si="1"/>
+        <v>4.2722284473337622</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="9"/>
+        <v>180</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="2"/>
+        <v>1703.4940000000001</v>
+      </c>
+      <c r="N25">
+        <v>22000</v>
+      </c>
+      <c r="O25" s="24">
+        <f t="shared" si="3"/>
+        <v>4.6406660553925088</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="10"/>
+        <v>180</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" si="4"/>
+        <v>1703.4940000000001</v>
+      </c>
+      <c r="S25">
+        <v>160</v>
+      </c>
+      <c r="T25" s="24">
+        <f t="shared" si="5"/>
+        <v>4.5706989129023228</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="11"/>
+        <v>180</v>
+      </c>
+      <c r="W25" s="2">
+        <f t="shared" si="6"/>
+        <v>1703.4940000000001</v>
+      </c>
+      <c r="X25">
+        <v>220</v>
+      </c>
+      <c r="Y25" s="24">
+        <f t="shared" si="7"/>
+        <v>4.428124028460708</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="20">
+        <v>2200</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="8"/>
+        <v>190</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="0"/>
+        <v>1742.577</v>
+      </c>
+      <c r="I26">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J26" s="24">
+        <f t="shared" si="1"/>
+        <v>4.2580091235509894</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="9"/>
+        <v>190</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="2"/>
+        <v>1742.577</v>
+      </c>
+      <c r="N26">
+        <v>22000</v>
+      </c>
+      <c r="O26" s="24">
+        <f t="shared" si="3"/>
+        <v>4.6330269877612693</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="10"/>
+        <v>190</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="4"/>
+        <v>1742.577</v>
+      </c>
+      <c r="S26">
+        <v>160</v>
+      </c>
+      <c r="T26" s="24">
+        <f t="shared" si="5"/>
+        <v>4.579517675237323</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="11"/>
+        <v>190</v>
+      </c>
+      <c r="W26" s="2">
+        <f t="shared" si="6"/>
+        <v>1742.577</v>
+      </c>
+      <c r="X26">
+        <v>220</v>
+      </c>
+      <c r="Y26" s="24">
+        <f t="shared" si="7"/>
+        <v>4.4395124369642573</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="20">
+        <v>1000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="0"/>
+        <v>1781.66</v>
+      </c>
+      <c r="I27">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J27" s="24">
+        <f t="shared" si="1"/>
+        <v>4.2438841385679096</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="2"/>
+        <v>1781.66</v>
+      </c>
+      <c r="N27">
+        <v>22000</v>
+      </c>
+      <c r="O27" s="24">
+        <f t="shared" si="3"/>
+        <v>4.6254130283588282</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="R27" s="2">
+        <f t="shared" si="4"/>
+        <v>1781.66</v>
+      </c>
+      <c r="S27">
+        <v>160</v>
+      </c>
+      <c r="T27" s="24">
+        <f t="shared" si="5"/>
+        <v>4.5879814179619496</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+      <c r="W27" s="2">
+        <f t="shared" si="6"/>
+        <v>1781.66</v>
+      </c>
+      <c r="X27">
+        <v>220</v>
+      </c>
+      <c r="Y27" s="24">
+        <f t="shared" si="7"/>
+        <v>4.4504561214192222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="20"/>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="24">
+        <f>E13</f>
+        <v>4.545454545454545</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="8"/>
+        <v>210</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="0"/>
+        <v>1820.7429999999999</v>
+      </c>
+      <c r="I28">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J28" s="24">
+        <f t="shared" si="1"/>
+        <v>4.2298525566455512</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="9"/>
+        <v>210</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="2"/>
+        <v>1820.7429999999999</v>
+      </c>
+      <c r="N28">
+        <v>22000</v>
+      </c>
+      <c r="O28" s="24">
+        <f t="shared" si="3"/>
+        <v>4.6178240535989996</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="10"/>
+        <v>210</v>
+      </c>
+      <c r="R28" s="2">
+        <f t="shared" si="4"/>
+        <v>1820.7429999999999</v>
+      </c>
+      <c r="S28">
+        <v>160</v>
+      </c>
+      <c r="T28" s="24">
+        <f t="shared" si="5"/>
+        <v>4.5961111562681278</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="11"/>
+        <v>210</v>
+      </c>
+      <c r="W28" s="2">
+        <f t="shared" si="6"/>
+        <v>1820.7429999999999</v>
+      </c>
+      <c r="X28">
+        <v>220</v>
+      </c>
+      <c r="Y28" s="24">
+        <f t="shared" si="7"/>
+        <v>4.4609806330341453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="27">
+        <f>B25/(B27+B25)*B2</f>
+        <v>2.5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29">
+        <f>(E28*$E$19)/($B$2-E28)</f>
+        <v>31999.999999999964</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="8"/>
+        <v>220</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="0"/>
+        <v>1859.826</v>
+      </c>
+      <c r="I29">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J29" s="24">
+        <f t="shared" si="1"/>
+        <v>4.2159134543795158</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="9"/>
+        <v>220</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="2"/>
+        <v>1859.826</v>
+      </c>
+      <c r="N29">
+        <v>22000</v>
+      </c>
+      <c r="O29" s="24">
+        <f t="shared" si="3"/>
+        <v>4.6102599407053511</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="10"/>
+        <v>220</v>
+      </c>
+      <c r="R29" s="2">
+        <f t="shared" si="4"/>
+        <v>1859.826</v>
+      </c>
+      <c r="S29">
+        <v>160</v>
+      </c>
+      <c r="T29" s="24">
+        <f t="shared" si="5"/>
+        <v>4.6039262787982729</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="11"/>
+        <v>220</v>
+      </c>
+      <c r="W29" s="2">
+        <f t="shared" si="6"/>
+        <v>1859.826</v>
+      </c>
+      <c r="X29">
+        <v>220</v>
+      </c>
+      <c r="Y29" s="24">
+        <f t="shared" si="7"/>
+        <v>4.4711096024378962</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="27">
+        <f>B26/(B27+B26)*B2</f>
+        <v>3.4375</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="8"/>
+        <v>230</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="0"/>
+        <v>1898.9089999999999</v>
+      </c>
+      <c r="I30">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J30" s="24">
+        <f t="shared" si="1"/>
+        <v>4.2020659204974171</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="9"/>
+        <v>230</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="2"/>
+        <v>1898.9089999999999</v>
+      </c>
+      <c r="N30">
+        <v>22000</v>
+      </c>
+      <c r="O30" s="24">
+        <f t="shared" si="3"/>
+        <v>4.6027205677045764</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="10"/>
+        <v>230</v>
+      </c>
+      <c r="R30" s="2">
+        <f t="shared" si="4"/>
+        <v>1898.9089999999999</v>
+      </c>
+      <c r="S30">
+        <v>160</v>
+      </c>
+      <c r="T30" s="24">
+        <f t="shared" si="5"/>
+        <v>4.6114447020242277</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="11"/>
+        <v>230</v>
+      </c>
+      <c r="W30" s="2">
+        <f t="shared" si="6"/>
+        <v>1898.9089999999999</v>
+      </c>
+      <c r="X30">
+        <v>220</v>
+      </c>
+      <c r="Y30" s="24">
+        <f t="shared" si="7"/>
+        <v>4.4808649168038839</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="28">
+        <f>B30-B29</f>
+        <v>0.9375</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="8"/>
+        <v>240</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="0"/>
+        <v>1937.992</v>
+      </c>
+      <c r="I31">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J31" s="24">
+        <f t="shared" si="1"/>
+        <v>4.188309055660282</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="9"/>
+        <v>240</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="2"/>
+        <v>1937.992</v>
+      </c>
+      <c r="N31">
+        <v>22000</v>
+      </c>
+      <c r="O31" s="24">
+        <f t="shared" si="3"/>
+        <v>4.5952058134199394</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="10"/>
+        <v>240</v>
+      </c>
+      <c r="R31" s="2">
+        <f t="shared" si="4"/>
+        <v>1937.992</v>
+      </c>
+      <c r="S31">
+        <v>160</v>
+      </c>
+      <c r="T31" s="24">
+        <f t="shared" si="5"/>
+        <v>4.6186830073708567</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="11"/>
+        <v>240</v>
+      </c>
+      <c r="W31" s="2">
+        <f t="shared" si="6"/>
+        <v>1937.992</v>
+      </c>
+      <c r="X31">
+        <v>220</v>
+      </c>
+      <c r="Y31" s="24">
+        <f t="shared" si="7"/>
+        <v>4.4902668777270716</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="24">
+        <f>E13</f>
+        <v>4.545454545454545</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="0"/>
+        <v>1977.075</v>
+      </c>
+      <c r="I32">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J32" s="24">
+        <f t="shared" si="1"/>
+        <v>4.1746419722678532</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="9"/>
+        <v>250</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="2"/>
+        <v>1977.075</v>
+      </c>
+      <c r="N32">
+        <v>22000</v>
+      </c>
+      <c r="O32" s="24">
+        <f t="shared" si="3"/>
+        <v>4.5877155574647865</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="10"/>
+        <v>250</v>
+      </c>
+      <c r="R32" s="2">
+        <f t="shared" si="4"/>
+        <v>1977.075</v>
+      </c>
+      <c r="S32">
+        <v>160</v>
+      </c>
+      <c r="T32" s="24">
+        <f t="shared" si="5"/>
+        <v>4.6256565632932869</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="11"/>
+        <v>250</v>
+      </c>
+      <c r="W32" s="2">
+        <f t="shared" si="6"/>
+        <v>1977.075</v>
+      </c>
+      <c r="X32">
+        <v>220</v>
+      </c>
+      <c r="Y32" s="24">
+        <f t="shared" si="7"/>
+        <v>4.499334342250493</v>
+      </c>
+    </row>
+    <row r="33" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33">
+        <f>$E$18*($B$2-E32)/E32</f>
+        <v>200.00000000000023</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="8"/>
+        <v>260</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="0"/>
+        <v>2016.1579999999999</v>
+      </c>
+      <c r="I33">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J33" s="24">
+        <f t="shared" si="1"/>
+        <v>4.1610637942676849</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="9"/>
+        <v>260</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" si="2"/>
+        <v>2016.1579999999999</v>
+      </c>
+      <c r="N33">
+        <v>22000</v>
+      </c>
+      <c r="O33" s="24">
+        <f t="shared" si="3"/>
+        <v>4.5802496802361139</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="10"/>
+        <v>260</v>
+      </c>
+      <c r="R33" s="2">
+        <f t="shared" si="4"/>
+        <v>2016.1579999999999</v>
+      </c>
+      <c r="S33">
+        <v>160</v>
+      </c>
+      <c r="T33" s="24">
+        <f t="shared" si="5"/>
+        <v>4.6323796341993546</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="11"/>
+        <v>260</v>
+      </c>
+      <c r="W33" s="2">
+        <f t="shared" si="6"/>
+        <v>2016.1579999999999</v>
+      </c>
+      <c r="X33">
+        <v>220</v>
+      </c>
+      <c r="Y33" s="24">
+        <f t="shared" si="7"/>
+        <v>4.5080848491027918</v>
+      </c>
+    </row>
+    <row r="34" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <f t="shared" si="8"/>
+        <v>270</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="0"/>
+        <v>2055.241</v>
+      </c>
+      <c r="I34">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J34" s="24">
+        <f t="shared" si="1"/>
+        <v>4.1475736569679524</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="9"/>
+        <v>270</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" si="2"/>
+        <v>2055.241</v>
+      </c>
+      <c r="N34">
+        <v>22000</v>
+      </c>
+      <c r="O34" s="24">
+        <f t="shared" si="3"/>
+        <v>4.5728080629082033</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="10"/>
+        <v>270</v>
+      </c>
+      <c r="R34" s="2">
+        <f t="shared" si="4"/>
+        <v>2055.241</v>
+      </c>
+      <c r="S34">
+        <v>160</v>
+      </c>
+      <c r="T34" s="24">
+        <f t="shared" si="5"/>
+        <v>4.6388654778419145</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="11"/>
+        <v>270</v>
+      </c>
+      <c r="W34" s="2">
+        <f t="shared" si="6"/>
+        <v>2055.241</v>
+      </c>
+      <c r="X34">
+        <v>220</v>
+      </c>
+      <c r="Y34" s="24">
+        <f t="shared" si="7"/>
+        <v>4.5165347319251019</v>
+      </c>
+    </row>
+    <row r="35" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="8"/>
+        <v>280</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="0"/>
+        <v>2094.3240000000005</v>
+      </c>
+      <c r="I35">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J35" s="24">
+        <f t="shared" si="1"/>
+        <v>4.134170706853892</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="9"/>
+        <v>280</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" si="2"/>
+        <v>2094.3240000000005</v>
+      </c>
+      <c r="N35">
+        <v>22000</v>
+      </c>
+      <c r="O35" s="24">
+        <f t="shared" si="3"/>
+        <v>4.5653905874263163</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="10"/>
+        <v>280</v>
+      </c>
+      <c r="R35" s="2">
+        <f t="shared" si="4"/>
+        <v>2094.3240000000005</v>
+      </c>
+      <c r="S35">
+        <v>160</v>
+      </c>
+      <c r="T35" s="24">
+        <f t="shared" si="5"/>
+        <v>4.6451264325802324</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="11"/>
+        <v>280</v>
+      </c>
+      <c r="W35" s="2">
+        <f t="shared" si="6"/>
+        <v>2094.3240000000005</v>
+      </c>
+      <c r="X35">
+        <v>220</v>
+      </c>
+      <c r="Y35" s="24">
+        <f t="shared" si="7"/>
+        <v>4.5246992210252319</v>
+      </c>
+    </row>
+    <row r="36" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="24">
+        <f>E13</f>
+        <v>4.545454545454545</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="8"/>
+        <v>290</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="0"/>
+        <v>2133.4070000000002</v>
+      </c>
+      <c r="I36">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J36" s="24">
+        <f t="shared" si="1"/>
+        <v>4.1208541014077911</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="9"/>
+        <v>290</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="2"/>
+        <v>2133.4070000000002</v>
+      </c>
+      <c r="N36">
+        <v>22000</v>
+      </c>
+      <c r="O36" s="24">
+        <f t="shared" si="3"/>
+        <v>4.5579971365004539</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="10"/>
+        <v>290</v>
+      </c>
+      <c r="R36" s="2">
+        <f t="shared" si="4"/>
+        <v>2133.4070000000002</v>
+      </c>
+      <c r="S36">
+        <v>160</v>
+      </c>
+      <c r="T36" s="24">
+        <f t="shared" si="5"/>
+        <v>4.6511739957190326</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="11"/>
+        <v>290</v>
+      </c>
+      <c r="W36" s="2">
+        <f t="shared" si="6"/>
+        <v>2133.4070000000002</v>
+      </c>
+      <c r="X36">
+        <v>220</v>
+      </c>
+      <c r="Y36" s="24">
+        <f t="shared" si="7"/>
+        <v>4.5325925349928848</v>
+      </c>
+    </row>
+    <row r="37" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37">
+        <f>$E$19*($B$2-E36)/E36</f>
+        <v>320.0000000000004</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="0"/>
+        <v>2172.4899999999998</v>
+      </c>
+      <c r="I37">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="J37" s="24">
+        <f t="shared" si="1"/>
+        <v>4.1076230089324373</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="9"/>
+        <v>300</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="2"/>
+        <v>2172.4899999999998</v>
+      </c>
+      <c r="N37">
+        <v>22000</v>
+      </c>
+      <c r="O37" s="24">
+        <f t="shared" si="3"/>
+        <v>4.5506275935991702</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="R37" s="2">
+        <f t="shared" si="4"/>
+        <v>2172.4899999999998</v>
+      </c>
+      <c r="S37">
+        <v>160</v>
+      </c>
+      <c r="T37" s="24">
+        <f t="shared" si="5"/>
+        <v>4.6570188939716779</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+      <c r="W37" s="2">
+        <f t="shared" si="6"/>
+        <v>2172.4899999999998</v>
+      </c>
+      <c r="X37">
+        <v>220</v>
+      </c>
+      <c r="Y37" s="24">
+        <f t="shared" si="7"/>
+        <v>4.54022796333527</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A24:B24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
